--- a/9020.T.xlsx
+++ b/9020.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E438035F-D19D-4F11-9666-3391D32D97C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433A115E-77CD-4839-A0CD-5A7F4EA1085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{18CA98BD-57D6-4625-8BA4-8A1DC4D072FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{18CA98BD-57D6-4625-8BA4-8A1DC4D072FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,12 +212,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -226,6 +224,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,18 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -291,8 +302,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94499</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -708,100 +719,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B78F2D2-B3A6-4352-BD01-078D663806F9}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>3048</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1131.310819</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f>+K2*K3</f>
         <v>3448235.3763120002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>281000</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f>47754+179147+145000+2969967+1263150</f>
         <v>4605018</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f>+K4+K6-K5</f>
         <v>7772253.3763120007</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -818,457 +831,455 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2990B-B703-4F9E-B72D-EFFA74A4DB97}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="4"/>
-    <col min="15" max="17" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
         <v>1194.2</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>1194.2</v>
       </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
         <v>6108</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>6108</v>
       </c>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
         <v>5323.6189999999997</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>5697.4440000000004</v>
       </c>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="8">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>+O8/O5</f>
         <v>304.02250799690967</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <f>+P8/P5</f>
         <v>325.33887125525058</v>
       </c>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>1618500</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>1853600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>327800</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>379600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>382200</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>405800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>76900</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
         <v>2405538</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="7">
         <v>2730118</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="7">
         <v>2582000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="3">
         <v>1687833</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="3">
         <v>1765637</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="3">
         <f>+O12-O13</f>
         <v>717705</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="3">
         <f>+P12-P13</f>
         <v>964481</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="3">
         <v>577075</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="3">
         <v>619319</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f>+O14-O15</f>
         <v>140630</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <f>+P14-P15</f>
         <v>345162</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>370000</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>42086</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>29195</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>71804</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>77726</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <f>+O16+O17-O18</f>
         <v>110912</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <f>+P16+P17-P18</f>
         <v>296631</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>93213</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>75749</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>63158</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <f>+O19+O20-O21</f>
         <v>128376</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <f>+P19+P20-P21</f>
         <v>274073</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>27830</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>76727</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <f>+O22-O23</f>
         <v>100546</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <f>+P22-P23</f>
         <v>197346</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>1312</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>895</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <f>+O24-O25</f>
         <v>99234</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="3">
         <f>+P24-P25</f>
         <v>196451</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="8" t="e">
+      <c r="N28" s="6" t="e">
         <f>+N26/N29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="6">
         <f>+O26/O29</f>
         <v>87.795022282346409</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="6">
         <f>+P26/P29</f>
         <v>173.82506586418984</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>1130.2918709999999</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>1130.164968</v>
       </c>
     </row>
